--- a/IQ Twist/data_analysis.xlsx
+++ b/IQ Twist/data_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\IQtwist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhen Ao\Desktop\project-2020-s2-puzzle-constraints\IQ Twist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F67E5-9513-4658-9148-85445E73ABBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F47761-F0F1-4539-9429-FD8E1468E7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="690" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2460" yWindow="3255" windowWidth="28380" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Choco</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>OR-Tools</t>
-  </si>
-  <si>
-    <t>Picat</t>
   </si>
   <si>
     <t>Yuck</t>
@@ -5948,7 +5945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9296,7 +9293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11190,7 +11187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Picat</c:v>
+                  <c:v>PicatSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24960,8 +24957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E115" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129:AE201"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="95" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24989,16 +24986,16 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
@@ -25007,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -31372,25 +31369,25 @@
     </row>
     <row r="129" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s">
+        <v>18</v>
+      </c>
+      <c r="R129" t="s">
+        <v>15</v>
+      </c>
+      <c r="S129" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA129" t="s">
         <v>16</v>
-      </c>
-      <c r="I129" t="s">
-        <v>20</v>
-      </c>
-      <c r="J129" t="s">
-        <v>19</v>
-      </c>
-      <c r="R129" t="s">
-        <v>16</v>
-      </c>
-      <c r="S129" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="130" spans="8:27" x14ac:dyDescent="0.25">
@@ -31533,7 +31530,7 @@
     </row>
     <row r="136" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I136">
         <v>120</v>
@@ -31542,13 +31539,13 @@
         <v>120</v>
       </c>
       <c r="R136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S136" s="2">
         <v>1</v>
       </c>
       <c r="Z136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA136">
         <v>14.59</v>
@@ -31556,7 +31553,7 @@
     </row>
     <row r="137" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I137">
         <v>120</v>
@@ -31565,13 +31562,13 @@
         <v>120</v>
       </c>
       <c r="R137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S137" s="2">
         <v>1</v>
       </c>
       <c r="Z137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA137">
         <v>3.93</v>
@@ -31579,7 +31576,7 @@
     </row>
     <row r="138" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I138">
         <v>36</v>
@@ -31588,13 +31585,13 @@
         <v>120</v>
       </c>
       <c r="R138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S138" s="2">
         <v>0.3</v>
       </c>
       <c r="Z138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA138">
         <v>1469.5</v>
@@ -31602,58 +31599,58 @@
     </row>
     <row r="155" spans="8:30" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" t="s">
+        <v>12</v>
+      </c>
+      <c r="L155" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" t="s">
+        <v>10</v>
+      </c>
+      <c r="P155" t="s">
         <v>15</v>
       </c>
-      <c r="J155" t="s">
+      <c r="Q155" t="s">
         <v>14</v>
       </c>
-      <c r="K155" t="s">
+      <c r="R155" t="s">
         <v>13</v>
       </c>
-      <c r="L155" t="s">
+      <c r="S155" t="s">
         <v>12</v>
       </c>
-      <c r="M155" t="s">
+      <c r="T155" t="s">
         <v>11</v>
       </c>
-      <c r="P155" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q155" t="s">
+      <c r="U155" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y155" t="s">
         <v>15</v>
       </c>
-      <c r="R155" t="s">
+      <c r="Z155" t="s">
         <v>14</v>
       </c>
-      <c r="S155" t="s">
+      <c r="AA155" t="s">
         <v>13</v>
       </c>
-      <c r="T155" t="s">
+      <c r="AB155" t="s">
         <v>12</v>
       </c>
-      <c r="U155" t="s">
+      <c r="AC155" t="s">
         <v>11</v>
       </c>
-      <c r="Y155" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z155" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA155" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB155" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC155" t="s">
-        <v>12</v>
-      </c>
       <c r="AD155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="8:30" x14ac:dyDescent="0.25">
@@ -31994,7 +31991,7 @@
     </row>
     <row r="162" spans="8:30" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I162">
         <v>24</v>
@@ -32012,7 +32009,7 @@
         <v>24</v>
       </c>
       <c r="P162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q162" s="2">
         <v>1</v>
@@ -32030,7 +32027,7 @@
         <v>1</v>
       </c>
       <c r="Y162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z162">
         <v>3.35</v>
@@ -32050,7 +32047,7 @@
     </row>
     <row r="163" spans="8:30" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I163">
         <v>24</v>
@@ -32068,7 +32065,7 @@
         <v>24</v>
       </c>
       <c r="P163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q163" s="2">
         <v>1</v>
@@ -32086,7 +32083,7 @@
         <v>1</v>
       </c>
       <c r="Y163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z163">
         <v>0.95</v>
@@ -32106,7 +32103,7 @@
     </row>
     <row r="164" spans="8:30" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I164">
         <v>13</v>
@@ -32124,7 +32121,7 @@
         <v>8</v>
       </c>
       <c r="P164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q164" s="1">
         <v>0.54169999999999996</v>
@@ -32142,7 +32139,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="Y164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z164">
         <v>1397.82</v>
@@ -32162,22 +32159,22 @@
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.25">
@@ -32202,7 +32199,7 @@
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H184">
         <v>3.35</v>
@@ -32222,7 +32219,7 @@
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H185">
         <v>0.95</v>
